--- a/Tables/stoch_dominance.xlsx
+++ b/Tables/stoch_dominance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xps-seira\Dropbox\Apps\ShareLaTeX\Donde2019\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\ShareLaTeX\Donde2020\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E59C7F-3E21-4F5B-87A7-6B7C549624E5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E18DA9-CD64-4E26-8674-15A4B26D063E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13872" yWindow="-13068" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-6825" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_fit" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="94">
   <si>
     <t>Var</t>
   </si>
@@ -67,193 +70,250 @@
     <t>Without inference</t>
   </si>
   <si>
+    <t>Sub-population</t>
+  </si>
+  <si>
+    <t>Fee-forcing</t>
+  </si>
+  <si>
+    <t>SW/AD/KS</t>
+  </si>
+  <si>
+    <t>Low-loan</t>
+  </si>
+  <si>
+    <t>High-loan</t>
+  </si>
+  <si>
+    <t>Low-subj. prob.</t>
+  </si>
+  <si>
+    <t>High-subj. Prob.</t>
+  </si>
+  <si>
+    <t>Low-age</t>
+  </si>
+  <si>
+    <t>High-age</t>
+  </si>
+  <si>
+    <t>Low-income index</t>
+  </si>
+  <si>
+    <t>High-income index</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Pawn before</t>
+  </si>
+  <si>
+    <t>First time</t>
+  </si>
+  <si>
+    <t>Family asks</t>
+  </si>
+  <si>
+    <t>Common asks</t>
+  </si>
+  <si>
+    <t>Has savings</t>
+  </si>
+  <si>
+    <t>No savings</t>
+  </si>
+  <si>
+    <t>Family doesn't ask</t>
+  </si>
+  <si>
+    <t>Not common ask</t>
+  </si>
+  <si>
+    <t>Not rosca</t>
+  </si>
+  <si>
+    <t>Rosca</t>
+  </si>
+  <si>
+    <t>High-education</t>
+  </si>
+  <si>
+    <t>Low-education</t>
+  </si>
+  <si>
+    <t>Not stressed</t>
+  </si>
+  <si>
+    <t>Stressed</t>
+  </si>
+  <si>
+    <t>PB</t>
+  </si>
+  <si>
+    <t>Not FB</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>Doesn't make budget</t>
+  </si>
+  <si>
+    <t>Makes budget</t>
+  </si>
+  <si>
+    <t>Not tempted</t>
+  </si>
+  <si>
+    <t>Tempted</t>
+  </si>
+  <si>
+    <t>High-transp. cost</t>
+  </si>
+  <si>
+    <t>Low-transp. cost</t>
+  </si>
+  <si>
+    <t>High-transp. time</t>
+  </si>
+  <si>
+    <t>Low-transp. time</t>
+  </si>
+  <si>
+    <t>Obs</t>
+  </si>
+  <si>
+    <t>Log-normality (AD/KS)</t>
+  </si>
+  <si>
+    <t>Not overconfident</t>
+  </si>
+  <si>
+    <t>Overconfident</t>
+  </si>
+  <si>
+    <t>C | T</t>
+  </si>
+  <si>
+    <t>Not PB</t>
+  </si>
+  <si>
     <t>prestamo_m</t>
   </si>
   <si>
+    <t>prestamo_m</t>
+  </si>
+  <si>
     <t>pr_recup_m</t>
   </si>
   <si>
+    <t>pr_recup_m</t>
+  </si>
+  <si>
     <t>edad_m</t>
   </si>
   <si>
+    <t>edad_m</t>
+  </si>
+  <si>
     <t>faltas_m</t>
   </si>
   <si>
+    <t>faltas_m</t>
+  </si>
+  <si>
     <t>genero</t>
   </si>
   <si>
+    <t>genero</t>
+  </si>
+  <si>
     <t>pres_antes</t>
   </si>
   <si>
+    <t>pres_antes</t>
+  </si>
+  <si>
     <t>fam_pide</t>
   </si>
   <si>
+    <t>fam_pide</t>
+  </si>
+  <si>
     <t>fam_comun</t>
   </si>
   <si>
+    <t>fam_comun</t>
+  </si>
+  <si>
     <t>ahorros</t>
   </si>
   <si>
+    <t>ahorros</t>
+  </si>
+  <si>
     <t>cta_tanda</t>
   </si>
   <si>
+    <t>cta_tanda</t>
+  </si>
+  <si>
     <t>masqueprepa</t>
   </si>
   <si>
+    <t>masqueprepa</t>
+  </si>
+  <si>
     <t>estresado_seguido</t>
   </si>
   <si>
+    <t>estresado_seguido</t>
+  </si>
+  <si>
+    <t>OC</t>
+  </si>
+  <si>
+    <t>OC</t>
+  </si>
+  <si>
     <t>pb</t>
   </si>
   <si>
+    <t>pb</t>
+  </si>
+  <si>
     <t>fb</t>
   </si>
   <si>
+    <t>fb</t>
+  </si>
+  <si>
     <t>hace_presupuesto</t>
   </si>
   <si>
+    <t>hace_presupuesto</t>
+  </si>
+  <si>
     <t>tentado</t>
   </si>
   <si>
+    <t>tentado</t>
+  </si>
+  <si>
     <t>low_cost</t>
   </si>
   <si>
+    <t>low_cost</t>
+  </si>
+  <si>
     <t>low_time</t>
   </si>
   <si>
-    <t>Sub-population</t>
-  </si>
-  <si>
-    <t>Fee-forcing</t>
-  </si>
-  <si>
-    <t>SW/AD/KS</t>
-  </si>
-  <si>
-    <t>Low-loan</t>
-  </si>
-  <si>
-    <t>High-loan</t>
-  </si>
-  <si>
-    <t>Low-subj. prob.</t>
-  </si>
-  <si>
-    <t>High-subj. Prob.</t>
-  </si>
-  <si>
-    <t>Low-age</t>
-  </si>
-  <si>
-    <t>High-age</t>
-  </si>
-  <si>
-    <t>Low-income index</t>
-  </si>
-  <si>
-    <t>High-income index</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Pawn before</t>
-  </si>
-  <si>
-    <t>First time</t>
-  </si>
-  <si>
-    <t>Family asks</t>
-  </si>
-  <si>
-    <t>Common asks</t>
-  </si>
-  <si>
-    <t>Has savings</t>
-  </si>
-  <si>
-    <t>No savings</t>
-  </si>
-  <si>
-    <t>Family doesn't ask</t>
-  </si>
-  <si>
-    <t>Not common ask</t>
-  </si>
-  <si>
-    <t>Not rosca</t>
-  </si>
-  <si>
-    <t>Rosca</t>
-  </si>
-  <si>
-    <t>High-education</t>
-  </si>
-  <si>
-    <t>Low-education</t>
-  </si>
-  <si>
-    <t>Not stressed</t>
-  </si>
-  <si>
-    <t>Stressed</t>
-  </si>
-  <si>
-    <t>PB</t>
-  </si>
-  <si>
-    <t>Not FB</t>
-  </si>
-  <si>
-    <t>FB</t>
-  </si>
-  <si>
-    <t>Doesn't make budget</t>
-  </si>
-  <si>
-    <t>Makes budget</t>
-  </si>
-  <si>
-    <t>Not tempted</t>
-  </si>
-  <si>
-    <t>Tempted</t>
-  </si>
-  <si>
-    <t>High-transp. cost</t>
-  </si>
-  <si>
-    <t>Low-transp. cost</t>
-  </si>
-  <si>
-    <t>High-transp. time</t>
-  </si>
-  <si>
-    <t>Low-transp. time</t>
-  </si>
-  <si>
-    <t>Obs</t>
-  </si>
-  <si>
-    <t>Log-normality (AD/KS)</t>
-  </si>
-  <si>
-    <t>OC</t>
-  </si>
-  <si>
-    <t>Not overconfident</t>
-  </si>
-  <si>
-    <t>Overconfident</t>
-  </si>
-  <si>
-    <t>C | T</t>
-  </si>
-  <si>
-    <t>Not PB</t>
+    <t>low_time</t>
   </si>
 </sst>
 </file>
@@ -269,7 +329,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,6 +357,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -380,13 +446,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -706,15 +775,15 @@
   <dimension ref="A1:K80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K80" sqref="K80"/>
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -722,7 +791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -742,21 +811,21 @@
         <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B3">
-        <v>2.5928287233876201E-2</v>
+        <v>4.1022948574416698E-2</v>
       </c>
       <c r="C3">
-        <v>0.12901044918224891</v>
+        <v>0.2077308722553835</v>
       </c>
       <c r="D3">
-        <v>0.64673285497220578</v>
+        <v>0.85296318801684146</v>
       </c>
       <c r="G3" t="str">
         <f>IF(AND(B3&gt;0.05,B3&lt;&gt;""),"*","   ")</f>
@@ -779,15 +848,15 @@
         <v>*/*  |  */*</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B4">
-        <v>1.3903263853802001E-3</v>
+        <v>7.7531726049869995E-4</v>
       </c>
       <c r="C4">
-        <v>9.9349125270157698E-2</v>
+        <v>8.6478034672225201E-2</v>
       </c>
       <c r="D4">
-        <v>0.3831660204040917</v>
+        <v>0.53674825218620459</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G67" si="1">IF(AND(B4&gt;0.05,B4&lt;&gt;""),"*","   ")</f>
@@ -806,18 +875,18 @@
         <v>*/*</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="B5">
-        <v>8.5569383246200006E-20</v>
+        <v>2.45257773428E-22</v>
       </c>
       <c r="C5">
-        <v>4.4498666578100002E-32</v>
+        <v>1.9587775733399999E-38</v>
       </c>
       <c r="D5">
-        <v>3.8197199435699999E-7</v>
+        <v>1.5471380628299998E-8</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="1"/>
@@ -840,15 +909,15 @@
         <v xml:space="preserve">   /     |     /   </v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B6">
-        <v>6.53586125981E-20</v>
+        <v>9.0844870833499996E-21</v>
       </c>
       <c r="C6">
-        <v>1.5102978674E-30</v>
+        <v>6.2730638759000003E-32</v>
       </c>
       <c r="D6">
-        <v>1.3383484662199999E-7</v>
+        <v>1.14386621525E-7</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="1"/>
@@ -867,15 +936,15 @@
         <v xml:space="preserve">   /   </v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B7">
-        <v>1.48366783059E-19</v>
+        <v>1.9843307574699999E-20</v>
       </c>
       <c r="C7">
-        <v>1.0568294182999999E-32</v>
+        <v>3.7000936810100001E-36</v>
       </c>
       <c r="D7">
-        <v>3.4421233758799999E-7</v>
+        <v>1.48615168083E-9</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
@@ -898,15 +967,15 @@
         <v xml:space="preserve">   /     |     /   </v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B8">
-        <v>4.5138039995000003E-17</v>
+        <v>5.4336889598500004E-18</v>
       </c>
       <c r="C8">
-        <v>1.8147668926E-25</v>
+        <v>1.6238165440399999E-30</v>
       </c>
       <c r="D8">
-        <v>8.5984684304700008E-6</v>
+        <v>1.04180487388E-7</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
@@ -925,18 +994,18 @@
         <v xml:space="preserve">   /   </v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="B9">
-        <v>0.39034547766560762</v>
+        <v>0.7329583981387493</v>
       </c>
       <c r="C9">
-        <v>0.39586860213276709</v>
+        <v>0.76399191131789634</v>
       </c>
       <c r="D9">
-        <v>0.86562523873456532</v>
+        <v>0.89577071940889108</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
@@ -959,15 +1028,15 @@
         <v>*/*  |  */*</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B10">
-        <v>0.38011014666227583</v>
+        <v>0.35311812414340388</v>
       </c>
       <c r="C10">
-        <v>0.48051036082570009</v>
+        <v>0.51575583697119221</v>
       </c>
       <c r="D10">
-        <v>0.82985535912354513</v>
+        <v>0.82622345140199804</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
@@ -986,15 +1055,15 @@
         <v>*/*</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B11">
-        <v>5.6736531024615101E-2</v>
+        <v>9.5968855141252904E-2</v>
       </c>
       <c r="C11">
-        <v>0.1807679965003639</v>
+        <v>0.2529010456258155</v>
       </c>
       <c r="D11">
-        <v>0.68595984681888433</v>
+        <v>0.90820547502631321</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
@@ -1017,15 +1086,15 @@
         <v>*/*  |  */*</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B12">
-        <v>1.43961350801836E-2</v>
+        <v>6.5850296812168998E-3</v>
       </c>
       <c r="C12">
-        <v>0.1757687864607082</v>
+        <v>0.15538263478943859</v>
       </c>
       <c r="D12">
-        <v>0.87378279828515826</v>
+        <v>0.85419128131075961</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
@@ -1044,18 +1113,18 @@
         <v>*/*</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="B13">
-        <v>0.3427970631993903</v>
+        <v>0.27263079446350358</v>
       </c>
       <c r="C13">
-        <v>0.68414238161959029</v>
+        <v>0.50427548902194286</v>
       </c>
       <c r="D13">
-        <v>0.93410553473687208</v>
+        <v>0.74672441183091842</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="1"/>
@@ -1078,15 +1147,15 @@
         <v>*/*  |  */*</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B14">
-        <v>0.63297848303254689</v>
+        <v>0.43045839296141569</v>
       </c>
       <c r="C14">
-        <v>0.63236637811931407</v>
+        <v>0.43607411317070571</v>
       </c>
       <c r="D14">
-        <v>0.91196269030281818</v>
+        <v>0.73137754280098966</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="1"/>
@@ -1105,15 +1174,15 @@
         <v>*/*</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B15">
-        <v>0.41437838791037152</v>
+        <v>0.64841011485263889</v>
       </c>
       <c r="C15">
-        <v>0.42898122188962112</v>
+        <v>0.53066908028943305</v>
       </c>
       <c r="D15">
-        <v>0.63792437465977114</v>
+        <v>0.87802389897907229</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="1"/>
@@ -1136,15 +1205,15 @@
         <v>*/*  |     /*</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B16">
-        <v>7.2300004395449999E-4</v>
+        <v>1.6447810755504E-3</v>
       </c>
       <c r="C16">
-        <v>1.6040332972862E-2</v>
+        <v>3.6079277350906901E-2</v>
       </c>
       <c r="D16">
-        <v>0.62671322813996821</v>
+        <v>0.79832498133781704</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
@@ -1163,18 +1232,18 @@
         <v xml:space="preserve">   /*</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="B17">
-        <v>0.69341364479787093</v>
+        <v>0.7904510488997516</v>
       </c>
       <c r="C17">
-        <v>0.56280078875626616</v>
+        <v>0.74085851274265846</v>
       </c>
       <c r="D17">
-        <v>0.56856452072750396</v>
+        <v>0.83618648584773425</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="1"/>
@@ -1197,15 +1266,15 @@
         <v>*/*  |  */*</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B18">
-        <v>2.5682145876306298E-2</v>
+        <v>4.14728340464681E-2</v>
       </c>
       <c r="C18">
-        <v>6.8884173902076407E-2</v>
+        <v>0.19895220701868391</v>
       </c>
       <c r="D18">
-        <v>0.33239728015182768</v>
+        <v>0.78373480350439917</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="1"/>
@@ -1224,15 +1293,15 @@
         <v>*/*</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B19">
-        <v>0.1043494436655069</v>
+        <v>0.22597219136270691</v>
       </c>
       <c r="C19">
-        <v>0.61442673160086492</v>
+        <v>0.68887000799091669</v>
       </c>
       <c r="D19">
-        <v>0.94610677771345653</v>
+        <v>0.99243802758595256</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="1"/>
@@ -1255,15 +1324,15 @@
         <v>*/*  |  */*</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B20">
-        <v>0.39358858641750488</v>
+        <v>0.45722504419876109</v>
       </c>
       <c r="C20">
-        <v>0.33008009004743261</v>
+        <v>0.5789034987347379</v>
       </c>
       <c r="D20">
-        <v>0.8358787610777294</v>
+        <v>0.93351765587997126</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="1"/>
@@ -1282,18 +1351,18 @@
         <v>*/*</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="B21">
-        <v>0.36478224777993801</v>
+        <v>0.56946960162901317</v>
       </c>
       <c r="C21">
-        <v>0.27928413389098677</v>
+        <v>0.56603416807571982</v>
       </c>
       <c r="D21">
-        <v>0.37773634742830131</v>
+        <v>0.88722228847568707</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="1"/>
@@ -1316,15 +1385,15 @@
         <v>*/*  |     /*</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B22">
-        <v>4.19447217050243E-2</v>
+        <v>2.8068612192147801E-2</v>
       </c>
       <c r="C22">
-        <v>1.4287970557066199E-2</v>
+        <v>9.8161270371211005E-3</v>
       </c>
       <c r="D22">
-        <v>0.23009980197319141</v>
+        <v>0.27573195191544281</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="1"/>
@@ -1343,15 +1412,15 @@
         <v xml:space="preserve">   /*</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B23">
-        <v>0.169300329315831</v>
+        <v>0.16936138265761211</v>
       </c>
       <c r="C23">
-        <v>0.60962327625369694</v>
+        <v>0.48317992588825709</v>
       </c>
       <c r="D23">
-        <v>0.91987412498292742</v>
+        <v>0.96365389812853819</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="1"/>
@@ -1374,19 +1443,19 @@
         <v>*/*  |  */*</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B24">
-        <v>7.1861535700645296E-2</v>
+        <v>3.3217148531188997E-2</v>
       </c>
       <c r="C24">
-        <v>0.30155875259731518</v>
+        <v>0.2315700249572471</v>
       </c>
       <c r="D24">
-        <v>0.86647625121105953</v>
+        <v>0.87154463590283004</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v xml:space="preserve">   </v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="2"/>
@@ -1401,18 +1470,18 @@
         <v>*/*</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="B25">
-        <v>0.83848531828667072</v>
+        <v>0.68809219548943501</v>
       </c>
       <c r="C25">
-        <v>0.86201611709697645</v>
+        <v>0.82320022671617255</v>
       </c>
       <c r="D25">
-        <v>0.95503706279976575</v>
+        <v>0.98281022048275879</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
@@ -1435,15 +1504,15 @@
         <v>*/*  |  */*</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B26">
-        <v>0.60495923877939795</v>
+        <v>0.73345170706432705</v>
       </c>
       <c r="C26">
-        <v>0.56815328854992542</v>
+        <v>0.68737506304895102</v>
       </c>
       <c r="D26">
-        <v>0.84531884211174591</v>
+        <v>0.83552905061143612</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="1"/>
@@ -1462,19 +1531,19 @@
         <v>*/*</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B27">
-        <v>2.6501351330398E-2</v>
+        <v>6.1549432104368099E-2</v>
       </c>
       <c r="C27">
-        <v>0.2155432603378109</v>
+        <v>0.17993046190555059</v>
       </c>
       <c r="D27">
-        <v>0.53986188883992814</v>
+        <v>0.75858878525263496</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">   </v>
+        <v>*</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="2"/>
@@ -1490,18 +1559,18 @@
       </c>
       <c r="K27" t="str">
         <f t="shared" si="5"/>
-        <v>*/*  |  */*</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+        <v>*/*  |     /*</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B28">
-        <v>1.35775252356374E-2</v>
+        <v>4.2442868560734004E-3</v>
       </c>
       <c r="C28">
-        <v>6.9271512682932898E-2</v>
+        <v>3.7736337859930802E-2</v>
       </c>
       <c r="D28">
-        <v>0.54372114334750621</v>
+        <v>0.48525566286632271</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="1"/>
@@ -1509,7 +1578,7 @@
       </c>
       <c r="H28" t="str">
         <f t="shared" si="2"/>
-        <v>*</v>
+        <v xml:space="preserve">   </v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="3"/>
@@ -1517,21 +1586,21 @@
       </c>
       <c r="J28" t="str">
         <f t="shared" si="4"/>
-        <v>*/*</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">   /*</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="B29">
-        <v>0.51130423838919448</v>
+        <v>0.36523265082413708</v>
       </c>
       <c r="C29">
-        <v>0.87375334467693855</v>
+        <v>0.63932068688297417</v>
       </c>
       <c r="D29">
-        <v>0.9478296357590702</v>
+        <v>0.98285067058828479</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="1"/>
@@ -1554,15 +1623,15 @@
         <v>*/*  |  */*</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B30">
-        <v>0.33259359576981512</v>
+        <v>0.1689103229294866</v>
       </c>
       <c r="C30">
-        <v>0.1126712007580162</v>
+        <v>6.6311809291117699E-2</v>
       </c>
       <c r="D30">
-        <v>0.49804657736299301</v>
+        <v>0.54975198924250646</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="1"/>
@@ -1581,15 +1650,15 @@
         <v>*/*</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B31">
-        <v>9.6569425864657193E-2</v>
+        <v>0.24436047784980269</v>
       </c>
       <c r="C31">
-        <v>8.7493819116225099E-2</v>
+        <v>0.19494684393154499</v>
       </c>
       <c r="D31">
-        <v>0.20290330153396161</v>
+        <v>0.60077323567554974</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="1"/>
@@ -1609,18 +1678,18 @@
       </c>
       <c r="K31" t="str">
         <f t="shared" si="5"/>
-        <v>*/*  |  */*</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+        <v>*/*  |     /*</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B32">
-        <v>1.2775021110394E-2</v>
+        <v>2.7460012274802001E-3</v>
       </c>
       <c r="C32">
-        <v>0.1007203953111311</v>
+        <v>4.7716827833705497E-2</v>
       </c>
       <c r="D32">
-        <v>0.64103238105295879</v>
+        <v>0.4348242376170397</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="1"/>
@@ -1628,7 +1697,7 @@
       </c>
       <c r="H32" t="str">
         <f t="shared" si="2"/>
-        <v>*</v>
+        <v xml:space="preserve">   </v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="3"/>
@@ -1636,21 +1705,21 @@
       </c>
       <c r="J32" t="str">
         <f t="shared" si="4"/>
-        <v>*/*</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">   /*</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="B33">
-        <v>0.18537553771448209</v>
+        <v>0.35777028001425992</v>
       </c>
       <c r="C33">
-        <v>0.47090035841053202</v>
+        <v>0.78886981801739187</v>
       </c>
       <c r="D33">
-        <v>0.62865756203689394</v>
+        <v>0.91375299824571421</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="1"/>
@@ -1673,15 +1742,15 @@
         <v>*/*  |  */*</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B34">
-        <v>0.42182046731995559</v>
+        <v>0.38488706531758082</v>
       </c>
       <c r="C34">
-        <v>0.443676222154122</v>
+        <v>0.53352737066467926</v>
       </c>
       <c r="D34">
-        <v>0.75513422479131509</v>
+        <v>0.97532709204768231</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="1"/>
@@ -1700,15 +1769,15 @@
         <v>*/*</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B35">
-        <v>0.19594857263075499</v>
+        <v>0.26338117380206999</v>
       </c>
       <c r="C35">
-        <v>0.54049613044750344</v>
+        <v>0.37765619850417859</v>
       </c>
       <c r="D35">
-        <v>0.96462407184308929</v>
+        <v>0.91409723116451747</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="1"/>
@@ -1731,19 +1800,19 @@
         <v>*/*  |  */*</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B36">
-        <v>0.1058701393007449</v>
+        <v>3.6091837491137903E-2</v>
       </c>
       <c r="C36">
-        <v>0.31323901276219418</v>
+        <v>0.2130174259569067</v>
       </c>
       <c r="D36">
-        <v>0.85272773957012049</v>
+        <v>0.95900688135464995</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v xml:space="preserve">   </v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="2"/>
@@ -1758,18 +1827,18 @@
         <v>*/*</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="B37">
-        <v>0.20373877964548931</v>
+        <v>0.20829506222936681</v>
       </c>
       <c r="C37">
-        <v>0.61355949608695437</v>
+        <v>0.47833380128326752</v>
       </c>
       <c r="D37">
-        <v>0.61799780337794119</v>
+        <v>0.56548823304694051</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" si="1"/>
@@ -1792,19 +1861,19 @@
         <v>*/*  |  */*</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B38">
-        <v>5.68984872732822E-2</v>
+        <v>1.50017997521554E-2</v>
       </c>
       <c r="C38">
-        <v>0.1153078216605454</v>
+        <v>0.10656052139695581</v>
       </c>
       <c r="D38">
-        <v>0.64210875963894265</v>
+        <v>0.86447456544837842</v>
       </c>
       <c r="G38" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v xml:space="preserve">   </v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="2"/>
@@ -1819,15 +1888,15 @@
         <v>*/*</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B39">
-        <v>0.29114042879318353</v>
+        <v>0.41291457323450109</v>
       </c>
       <c r="C39">
-        <v>0.55534297717636594</v>
+        <v>0.53500128422699711</v>
       </c>
       <c r="D39">
-        <v>0.85429158156811291</v>
+        <v>0.98857778908433847</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="1"/>
@@ -1850,15 +1919,15 @@
         <v>*/*  |  */*</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B40">
-        <v>0.14283525780184031</v>
+        <v>0.20429111366851349</v>
       </c>
       <c r="C40">
-        <v>0.131019103734514</v>
+        <v>0.21694035367938069</v>
       </c>
       <c r="D40">
-        <v>0.51981899227869344</v>
+        <v>0.64932156696494991</v>
       </c>
       <c r="G40" t="str">
         <f t="shared" si="1"/>
@@ -1877,18 +1946,18 @@
         <v>*/*</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="B41">
-        <v>0.61419371328512018</v>
+        <v>0.53863968651303218</v>
       </c>
       <c r="C41">
-        <v>0.4403699574980538</v>
+        <v>0.29135923151255078</v>
       </c>
       <c r="D41">
-        <v>0.70106983592999117</v>
+        <v>0.67000476960247679</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" si="1"/>
@@ -1911,15 +1980,15 @@
         <v>*/*  |  */*</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B42">
-        <v>4.6226694280513597E-2</v>
+        <v>1.60237569264641E-2</v>
       </c>
       <c r="C42">
-        <v>0.13006063584298011</v>
+        <v>0.2059637080863603</v>
       </c>
       <c r="D42">
-        <v>0.33976078215260919</v>
+        <v>0.53125449695286586</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" si="1"/>
@@ -1938,15 +2007,15 @@
         <v>*/*</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B43">
-        <v>2.2410463574160801E-2</v>
+        <v>2.9671175228039599E-2</v>
       </c>
       <c r="C43">
-        <v>7.1761310505941603E-2</v>
+        <v>9.0828044039659897E-2</v>
       </c>
       <c r="D43">
-        <v>0.25721646525702802</v>
+        <v>0.36050747982588349</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" si="1"/>
@@ -1969,15 +2038,15 @@
         <v>*/*  |  */*</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B44">
-        <v>0.2948255412326159</v>
+        <v>0.31609851465847039</v>
       </c>
       <c r="C44">
-        <v>0.3752952298366572</v>
+        <v>0.4462539026746678</v>
       </c>
       <c r="D44">
-        <v>0.84738745405943616</v>
+        <v>0.73357501962423788</v>
       </c>
       <c r="G44" t="str">
         <f t="shared" si="1"/>
@@ -1996,18 +2065,18 @@
         <v>*/*</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="B45">
-        <v>2.7034909273857002E-3</v>
+        <v>1.3888192971022E-3</v>
       </c>
       <c r="C45">
-        <v>0.40023785869969047</v>
+        <v>0.45075592028480582</v>
       </c>
       <c r="D45">
-        <v>0.78704818445822422</v>
+        <v>0.90145422426472233</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="1"/>
@@ -2030,15 +2099,15 @@
         <v>*/*  |     /*</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B46">
-        <v>4.4000382348733699E-2</v>
+        <v>2.08366771685367E-2</v>
       </c>
       <c r="C46">
-        <v>2.8963237808218401E-2</v>
+        <v>8.2297724350016005E-3</v>
       </c>
       <c r="D46">
-        <v>0.50784730711218784</v>
+        <v>0.30693921468679031</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" si="1"/>
@@ -2057,15 +2126,15 @@
         <v xml:space="preserve">   /*</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B47">
-        <v>0.66617092147807744</v>
+        <v>0.58335632083016875</v>
       </c>
       <c r="C47">
-        <v>0.73949258720047406</v>
+        <v>0.39574131299250059</v>
       </c>
       <c r="D47">
-        <v>0.95388084307545229</v>
+        <v>0.90872599210877225</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" si="1"/>
@@ -2085,26 +2154,26 @@
       </c>
       <c r="K47" t="str">
         <f t="shared" si="5"/>
-        <v>*/*  |  */*</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+        <v>*/*  |     /*</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B48">
-        <v>0.1121827878586725</v>
+        <v>4.7189562667756403E-2</v>
       </c>
       <c r="C48">
-        <v>5.6794199344477901E-2</v>
+        <v>3.1265587881065697E-2</v>
       </c>
       <c r="D48">
-        <v>0.55859295393535346</v>
+        <v>0.4713131987565668</v>
       </c>
       <c r="G48" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v xml:space="preserve">   </v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="2"/>
-        <v>*</v>
+        <v xml:space="preserve">   </v>
       </c>
       <c r="I48" t="str">
         <f t="shared" si="3"/>
@@ -2112,21 +2181,21 @@
       </c>
       <c r="J48" t="str">
         <f t="shared" si="4"/>
-        <v>*/*</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">   /*</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="B49">
-        <v>0.40043616632222329</v>
+        <v>0.36471518235808409</v>
       </c>
       <c r="C49">
-        <v>0.45970793140816762</v>
+        <v>0.54647076593572741</v>
       </c>
       <c r="D49">
-        <v>0.76058038981050857</v>
+        <v>0.95495967665651726</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" si="1"/>
@@ -2149,19 +2218,19 @@
         <v>*/*  |  */*</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B50">
-        <v>5.8604484587103302E-2</v>
+        <v>3.4931657060248603E-2</v>
       </c>
       <c r="C50">
-        <v>0.13127758324481689</v>
+        <v>0.13810404891545031</v>
       </c>
       <c r="D50">
-        <v>0.65600319460643286</v>
+        <v>0.8258555464439844</v>
       </c>
       <c r="G50" t="str">
         <f t="shared" si="1"/>
-        <v>*</v>
+        <v xml:space="preserve">   </v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="2"/>
@@ -2176,15 +2245,15 @@
         <v>*/*</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B51">
-        <v>0.13350026539563811</v>
+        <v>0.22015940946777979</v>
       </c>
       <c r="C51">
-        <v>0.54805078855130884</v>
+        <v>0.58728673769969375</v>
       </c>
       <c r="D51">
-        <v>0.98698452841420281</v>
+        <v>0.9218497236196963</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" si="1"/>
@@ -2207,15 +2276,15 @@
         <v>*/*  |  */*</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B52">
-        <v>0.2866058290222156</v>
+        <v>0.1968829980214743</v>
       </c>
       <c r="C52">
-        <v>0.22301227931244039</v>
+        <v>0.10025720058776399</v>
       </c>
       <c r="D52">
-        <v>0.84925612553590968</v>
+        <v>0.75888459798609254</v>
       </c>
       <c r="G52" t="str">
         <f t="shared" si="1"/>
@@ -2234,18 +2303,18 @@
         <v>*/*</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B53">
-        <v>0.34231735203192137</v>
+        <v>0.30561008381024729</v>
       </c>
       <c r="C53">
-        <v>0.2023464473174493</v>
+        <v>0.1348956831439892</v>
       </c>
       <c r="D53">
-        <v>0.5100202468425864</v>
+        <v>0.41163714549664449</v>
       </c>
       <c r="G53" t="str">
         <f t="shared" si="1"/>
@@ -2268,15 +2337,15 @@
         <v>*/*  |  */*</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B54">
-        <v>0.64136676943390802</v>
+        <v>0.54588998910487696</v>
       </c>
       <c r="C54">
-        <v>0.67726397202654498</v>
+        <v>0.52830479062179669</v>
       </c>
       <c r="D54">
-        <v>0.981106368901143</v>
+        <v>0.90849120577255926</v>
       </c>
       <c r="G54" t="str">
         <f t="shared" si="1"/>
@@ -2295,19 +2364,19 @@
         <v>*/*</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B55">
-        <v>4.7363443634476997E-2</v>
+        <v>0.14684948019067301</v>
       </c>
       <c r="C55">
-        <v>0.5141947360449125</v>
+        <v>0.81496311242724306</v>
       </c>
       <c r="D55">
-        <v>0.69519759101706313</v>
+        <v>0.99684567443949523</v>
       </c>
       <c r="G55" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">   </v>
+        <v>*</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" si="2"/>
@@ -2323,18 +2392,18 @@
       </c>
       <c r="K55" t="str">
         <f t="shared" si="5"/>
-        <v>*/*  |     /*</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+        <v>*/*  |  */*</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B56">
-        <v>1.1895322963663199E-2</v>
+        <v>1.5236444132694E-2</v>
       </c>
       <c r="C56">
-        <v>4.3406190346012299E-2</v>
+        <v>9.1512913435634002E-2</v>
       </c>
       <c r="D56">
-        <v>0.40685456069630388</v>
+        <v>0.68638205547030418</v>
       </c>
       <c r="G56" t="str">
         <f t="shared" si="1"/>
@@ -2342,7 +2411,7 @@
       </c>
       <c r="H56" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">   </v>
+        <v>*</v>
       </c>
       <c r="I56" t="str">
         <f t="shared" si="3"/>
@@ -2350,21 +2419,21 @@
       </c>
       <c r="J56" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   /*</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+        <v>*/*</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="B57">
-        <v>0.53026281230989691</v>
+        <v>0.66646575228446725</v>
       </c>
       <c r="C57">
-        <v>0.28546405956202492</v>
+        <v>0.41234715456586363</v>
       </c>
       <c r="D57">
-        <v>0.47503265892615421</v>
+        <v>0.60502145178222211</v>
       </c>
       <c r="G57" t="str">
         <f t="shared" si="1"/>
@@ -2387,15 +2456,15 @@
         <v>*/*  |  */*</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B58">
-        <v>0.2358074431197508</v>
+        <v>0.20903385379196249</v>
       </c>
       <c r="C58">
-        <v>0.21186025995841429</v>
+        <v>0.31655441548475222</v>
       </c>
       <c r="D58">
-        <v>0.65258961016669781</v>
+        <v>0.91203366881099412</v>
       </c>
       <c r="G58" t="str">
         <f t="shared" si="1"/>
@@ -2414,15 +2483,15 @@
         <v>*/*</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B59">
-        <v>7.13606064254802E-2</v>
+        <v>0.2476675551059839</v>
       </c>
       <c r="C59">
-        <v>0.34799777155680223</v>
+        <v>0.3796534442082829</v>
       </c>
       <c r="D59">
-        <v>0.73592610615283371</v>
+        <v>0.78110946008314297</v>
       </c>
       <c r="G59" t="str">
         <f t="shared" si="1"/>
@@ -2445,15 +2514,15 @@
         <v>*/*  |     /*</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B60">
-        <v>1.7306900928851E-2</v>
+        <v>1.9270676658751301E-2</v>
       </c>
       <c r="C60">
-        <v>4.5272879728596602E-2</v>
+        <v>4.04907539382445E-2</v>
       </c>
       <c r="D60">
-        <v>0.49229607479220799</v>
+        <v>0.49470086507539413</v>
       </c>
       <c r="G60" t="str">
         <f t="shared" si="1"/>
@@ -2472,18 +2541,18 @@
         <v xml:space="preserve">   /*</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="B61">
-        <v>0.13935954735691389</v>
+        <v>0.56092984044689154</v>
       </c>
       <c r="C61">
-        <v>0.20466210875632809</v>
+        <v>0.44754967605575391</v>
       </c>
       <c r="D61">
-        <v>0.37382910041325318</v>
+        <v>0.541596723017717</v>
       </c>
       <c r="G61" t="str">
         <f t="shared" si="1"/>
@@ -2506,15 +2575,15 @@
         <v>*/*  |  */*</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B62">
-        <v>0.38421940170682373</v>
+        <v>0.32702770573168638</v>
       </c>
       <c r="C62">
-        <v>0.51220112116956917</v>
+        <v>0.58694275888923064</v>
       </c>
       <c r="D62">
-        <v>0.792557297320714</v>
+        <v>0.89819555834250397</v>
       </c>
       <c r="G62" t="str">
         <f t="shared" si="1"/>
@@ -2533,15 +2602,15 @@
         <v>*/*</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B63">
-        <v>0.82593190954096996</v>
+        <v>0.72752381857216042</v>
       </c>
       <c r="C63">
-        <v>0.84026984642651992</v>
+        <v>0.90175538264880251</v>
       </c>
       <c r="D63">
-        <v>0.97137525352186738</v>
+        <v>0.96261890110130333</v>
       </c>
       <c r="G63" t="str">
         <f t="shared" si="1"/>
@@ -2564,19 +2633,19 @@
         <v>*/*  |  */*</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B64">
-        <v>2.5159362079115299E-2</v>
+        <v>7.9914864485988099E-2</v>
       </c>
       <c r="C64">
-        <v>7.2938594759349704E-2</v>
+        <v>0.26874244189470742</v>
       </c>
       <c r="D64">
-        <v>0.6218509909824631</v>
+        <v>0.94018701193137144</v>
       </c>
       <c r="G64" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">   </v>
+        <v>*</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" si="2"/>
@@ -2591,18 +2660,18 @@
         <v>*/*</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="B65">
-        <v>0.55971430969390379</v>
+        <v>0.49670243050093887</v>
       </c>
       <c r="C65">
-        <v>0.44790726753593268</v>
+        <v>0.53479504065851313</v>
       </c>
       <c r="D65">
-        <v>0.79029709209602295</v>
+        <v>0.87592087426963006</v>
       </c>
       <c r="G65" t="str">
         <f t="shared" si="1"/>
@@ -2625,15 +2694,15 @@
         <v>*/*  |  */*</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B66">
-        <v>0.17065548623685881</v>
+        <v>0.30670161351785119</v>
       </c>
       <c r="C66">
-        <v>0.17222282689802179</v>
+        <v>0.26806805034983672</v>
       </c>
       <c r="D66">
-        <v>0.79816389267577892</v>
+        <v>0.66973578589084826</v>
       </c>
       <c r="G66" t="str">
         <f t="shared" si="1"/>
@@ -2652,15 +2721,15 @@
         <v>*/*</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B67">
-        <v>0.1395884660820447</v>
+        <v>0.1098791244370253</v>
       </c>
       <c r="C67">
-        <v>0.53596105094823387</v>
+        <v>0.21270529584946721</v>
       </c>
       <c r="D67">
-        <v>0.91768762347518174</v>
+        <v>0.88669704764903567</v>
       </c>
       <c r="G67" t="str">
         <f t="shared" si="1"/>
@@ -2683,19 +2752,19 @@
         <v>*/*  |  */*</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B68">
-        <v>0.106297835435431</v>
+        <v>1.6854928163228401E-2</v>
       </c>
       <c r="C68">
-        <v>0.38659560203323612</v>
+        <v>0.1833361956575571</v>
       </c>
       <c r="D68">
-        <v>0.53056261575455177</v>
+        <v>0.3831425946171339</v>
       </c>
       <c r="G68" t="str">
         <f t="shared" ref="G68:G76" si="6">IF(AND(B68&gt;0.05,B68&lt;&gt;""),"*","   ")</f>
-        <v>*</v>
+        <v xml:space="preserve">   </v>
       </c>
       <c r="H68" t="str">
         <f t="shared" ref="H68:H76" si="7">IF(AND(C68&gt;0.05,C68&lt;&gt;""),"*","   ")</f>
@@ -2710,18 +2779,18 @@
         <v>*/*</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="B69">
-        <v>0.88840725125874442</v>
+        <v>0.64848780524883276</v>
       </c>
       <c r="C69">
-        <v>0.91243827872014527</v>
+        <v>0.55471801988377423</v>
       </c>
       <c r="D69">
-        <v>0.96804992547124424</v>
+        <v>0.91691674015605229</v>
       </c>
       <c r="G69" t="str">
         <f t="shared" si="6"/>
@@ -2744,15 +2813,15 @@
         <v>*/*  |     /*</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B70">
-        <v>2.3970459545626E-3</v>
+        <v>4.373516827154E-4</v>
       </c>
       <c r="C70">
-        <v>5.5530362499522003E-3</v>
+        <v>2.2781567436060001E-3</v>
       </c>
       <c r="D70">
-        <v>0.29872189335426469</v>
+        <v>0.39793499354148021</v>
       </c>
       <c r="G70" t="str">
         <f t="shared" si="6"/>
@@ -2771,15 +2840,15 @@
         <v xml:space="preserve">   /*</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B71">
-        <v>5.18702253157515E-2</v>
+        <v>0.1050013129969137</v>
       </c>
       <c r="C71">
-        <v>0.4441518757877258</v>
+        <v>0.35103413706009001</v>
       </c>
       <c r="D71">
-        <v>0.86706658825119787</v>
+        <v>0.89066740177301862</v>
       </c>
       <c r="G71" t="str">
         <f t="shared" si="6"/>
@@ -2802,15 +2871,15 @@
         <v>*/*  |  */*</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B72">
-        <v>9.5727309834121893E-2</v>
+        <v>8.3602669266422402E-2</v>
       </c>
       <c r="C72">
-        <v>0.59120102446277667</v>
+        <v>0.58515379519081756</v>
       </c>
       <c r="D72">
-        <v>0.93710884920752624</v>
+        <v>0.94954777222134401</v>
       </c>
       <c r="G72" t="str">
         <f t="shared" si="6"/>
@@ -2829,18 +2898,18 @@
         <v>*/*</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="B73">
-        <v>0.42563434593744998</v>
+        <v>0.40100867254262662</v>
       </c>
       <c r="C73">
-        <v>0.20861476430987311</v>
+        <v>0.2345241032641342</v>
       </c>
       <c r="D73">
-        <v>0.62922752712439367</v>
+        <v>0.87323702526470792</v>
       </c>
       <c r="G73" t="str">
         <f t="shared" si="6"/>
@@ -2863,15 +2932,15 @@
         <v>*/*  |  */*</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B74">
-        <v>0.24534591170516831</v>
+        <v>0.20324145921318229</v>
       </c>
       <c r="C74">
-        <v>0.3308590599756101</v>
+        <v>0.41691625094016838</v>
       </c>
       <c r="D74">
-        <v>0.57331382761043326</v>
+        <v>0.83046413856945189</v>
       </c>
       <c r="G74" t="str">
         <f t="shared" si="6"/>
@@ -2890,15 +2959,15 @@
         <v>*/*</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B75">
-        <v>3.7972694146195599E-2</v>
+        <v>4.33443923677699E-2</v>
       </c>
       <c r="C75">
-        <v>0.2490263577972808</v>
+        <v>0.1858916511104296</v>
       </c>
       <c r="D75">
-        <v>0.74992543539943779</v>
+        <v>0.83411208394377989</v>
       </c>
       <c r="G75" t="str">
         <f t="shared" si="6"/>
@@ -2921,15 +2990,15 @@
         <v>*/*  |  */*</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B76">
-        <v>4.5080384045691799E-2</v>
+        <v>3.59022853173636E-2</v>
       </c>
       <c r="C76">
-        <v>0.22731363499256449</v>
+        <v>0.1850543273074737</v>
       </c>
       <c r="D76">
-        <v>0.59490768415022288</v>
+        <v>0.62529068635913365</v>
       </c>
       <c r="G76" t="str">
         <f t="shared" si="6"/>
@@ -2948,18 +3017,18 @@
         <v>*/*</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="B77">
-        <v>0.61262637556922894</v>
+        <v>0.63004790655320697</v>
       </c>
       <c r="C77">
-        <v>0.58903441533520406</v>
+        <v>0.76123947977497608</v>
       </c>
       <c r="D77">
-        <v>0.76563389260202419</v>
+        <v>0.94155627339689629</v>
       </c>
       <c r="G77" t="str">
         <f t="shared" ref="G77:G80" si="11">IF(AND(B77&gt;0.05,B77&lt;&gt;""),"*","   ")</f>
@@ -2982,15 +3051,15 @@
         <v>*/*  |  */*</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B78">
-        <v>0.39165570295873342</v>
+        <v>0.45609933545136933</v>
       </c>
       <c r="C78">
-        <v>0.71311006088020745</v>
+        <v>0.79559878318903254</v>
       </c>
       <c r="D78">
-        <v>0.94140167197152724</v>
+        <v>0.94581767957900698</v>
       </c>
       <c r="G78" t="str">
         <f t="shared" si="11"/>
@@ -3009,15 +3078,15 @@
         <v>*/*</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B79">
-        <v>6.9714992008666599E-2</v>
+        <v>5.05999927475837E-2</v>
       </c>
       <c r="C79">
-        <v>0.32032467415777888</v>
+        <v>0.1148308045745718</v>
       </c>
       <c r="D79">
-        <v>0.83265878296060292</v>
+        <v>0.59357181946780246</v>
       </c>
       <c r="G79" t="str">
         <f t="shared" si="11"/>
@@ -3040,15 +3109,15 @@
         <v>*/*  |  */*</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B80">
-        <v>4.6170861988333402E-2</v>
+        <v>3.0556627206287999E-3</v>
       </c>
       <c r="C80">
-        <v>0.13737861246203581</v>
+        <v>8.0931006415774595E-2</v>
       </c>
       <c r="D80">
-        <v>0.71691451315337096</v>
+        <v>0.70011098709979747</v>
       </c>
       <c r="G80" t="str">
         <f t="shared" si="11"/>
@@ -3076,20 +3145,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E42" sqref="B3:E42"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.36328125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="F1" s="17" t="s">
         <v>10</v>
       </c>
@@ -3103,7 +3172,7 @@
       <c r="L1" s="17"/>
       <c r="M1" s="17"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="F2" s="17" t="s">
         <v>5</v>
       </c>
@@ -3121,21 +3190,21 @@
       </c>
       <c r="M2" s="17"/>
     </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -3162,9 +3231,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C4" s="9" t="str">
         <f>IF(F4=1,"$\succeq_{1}^*$",IF(G4=1,"$\succeq_{2}^*$",IF(H4=1,"$\preceq_{1}^*$",IF(I4=1,"$\preceq_{2}^*$",IF(J4=1,"$\succeq_{1}$",IF(K4=1,"$\succeq_{2}$",IF(L4=1,"$\preceq_{1}$",IF(M4=1,"$\preceq_{2}$","-"))))))))</f>
@@ -3176,7 +3245,7 @@
       </c>
       <c r="E4" s="7">
         <f>N4</f>
-        <v>5034</v>
+        <v>5033</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -3185,15 +3254,15 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <v>5034</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <v>5033</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C5" s="14" t="str">
         <f>IF(F5=1,"$\succeq_{1}^*$",IF(G5=1,"$\succeq_{2}^*$",IF(H5=1,"$\preceq_{1}^*$",IF(I5=1,"$\preceq_{2}^*$",IF(J5=1,"$\succeq_{1}$",IF(K5=1,"$\succeq_{2}$",IF(L5=1,"$\preceq_{1}$",IF(M5=1,"$\preceq_{2}$","-"))))))))</f>
@@ -3223,9 +3292,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C6" s="14" t="str">
         <f t="shared" ref="C6:C40" si="1">IF(F6=1,"$\succeq_{1}^*$",IF(G6=1,"$\succeq_{2}^*$",IF(H6=1,"$\preceq_{1}^*$",IF(I6=1,"$\preceq_{2}^*$",IF(J6=1,"$\succeq_{1}$",IF(K6=1,"$\succeq_{2}$",IF(L6=1,"$\preceq_{1}$",IF(M6=1,"$\preceq_{2}$","-"))))))))</f>
@@ -3237,7 +3306,7 @@
       </c>
       <c r="E6" s="11">
         <f t="shared" si="0"/>
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -3249,18 +3318,18 @@
         <v>1</v>
       </c>
       <c r="N6">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="O6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C7" s="9" t="str">
         <f t="shared" si="1"/>
@@ -3272,7 +3341,7 @@
       </c>
       <c r="E7" s="11">
         <f t="shared" si="0"/>
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -3287,15 +3356,15 @@
         <v>1</v>
       </c>
       <c r="N7">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="O7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C8" s="9" t="str">
         <f t="shared" si="1"/>
@@ -3307,7 +3376,7 @@
       </c>
       <c r="E8" s="11">
         <f t="shared" si="0"/>
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -3319,18 +3388,18 @@
         <v>1</v>
       </c>
       <c r="N8">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="O8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3342,25 +3411,25 @@
       </c>
       <c r="E9" s="11">
         <f t="shared" si="0"/>
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="N9">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="O9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C10" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>$\succeq_{1}$</v>
+        <v>$\succeq_{1}^*$</v>
       </c>
       <c r="D10" s="12" t="str">
         <f>test_fit!K15</f>
@@ -3368,24 +3437,30 @@
       </c>
       <c r="E10" s="11">
         <f t="shared" si="0"/>
-        <v>1362</v>
+        <v>1364</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="N10">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="O10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C11" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3397,7 +3472,7 @@
       </c>
       <c r="E11" s="11">
         <f t="shared" si="0"/>
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -3406,19 +3481,19 @@
         <v>1</v>
       </c>
       <c r="N11">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="O11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$\succeq_{1}$</v>
+        <v>22</v>
+      </c>
+      <c r="C12" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>$\succeq_{1}^*$</v>
       </c>
       <c r="D12" s="12" t="str">
         <f>test_fit!K19</f>
@@ -3426,31 +3501,34 @@
       </c>
       <c r="E12" s="11">
         <f t="shared" si="0"/>
-        <v>948</v>
+        <v>947</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
       <c r="N12">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="O12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
+        <v>23</v>
+      </c>
+      <c r="C13" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>$\succeq_{1}$</v>
       </c>
       <c r="D13" s="12" t="str">
         <f>test_fit!K21</f>
@@ -3460,6 +3538,12 @@
         <f t="shared" si="0"/>
         <v>755</v>
       </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
       <c r="N13">
         <v>755</v>
       </c>
@@ -3467,12 +3551,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C14" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(F14=1,"$\succeq_{1}^*$",IF(G14=1,"$\succeq_{2}^*$",IF(H14=1,"$\preceq_{1}^*$",IF(I14=1,"$\preceq_{2}^*$",IF(J14=1,"$\succeq_{1}$",IF(K14=1,"$\succeq_{2}$",IF(L14=1,"$\preceq_{1}$",IF(M14=1,"$\preceq_{2}$","-"))))))))</f>
         <v>$\succeq_{1}$</v>
       </c>
       <c r="D14" s="12" t="str">
@@ -3481,24 +3565,24 @@
       </c>
       <c r="E14" s="11">
         <f t="shared" si="0"/>
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="N14">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="O14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3510,54 +3594,60 @@
       </c>
       <c r="E15" s="11">
         <f t="shared" si="0"/>
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="N15">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="O15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C16" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>$\succeq_{1}$</v>
+        <v>$\succeq_{1}^*$</v>
       </c>
       <c r="D16" s="12" t="str">
         <f>test_fit!K27</f>
-        <v>*/*  |  */*</v>
+        <v>*/*  |     /*</v>
       </c>
       <c r="E16" s="11">
         <f t="shared" si="0"/>
-        <v>2475</v>
+        <v>2476</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
       <c r="N16">
-        <v>2475</v>
+        <v>2476</v>
       </c>
       <c r="O16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>$\preceq_{1}$</v>
+        <v>31</v>
+      </c>
+      <c r="C17" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>$\succeq_{1}$</v>
       </c>
       <c r="D17" s="12" t="str">
         <f>test_fit!K29</f>
@@ -3565,21 +3655,24 @@
       </c>
       <c r="E17" s="11">
         <f t="shared" si="0"/>
-        <v>1826</v>
-      </c>
-      <c r="L17">
+        <v>1823</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
         <v>1</v>
       </c>
       <c r="N17">
-        <v>1826</v>
+        <v>1823</v>
       </c>
       <c r="O17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B18" s="4" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C18" s="9" t="str">
         <f t="shared" si="1"/>
@@ -3587,11 +3680,11 @@
       </c>
       <c r="D18" s="12" t="str">
         <f>test_fit!K31</f>
-        <v>*/*  |  */*</v>
+        <v>*/*  |     /*</v>
       </c>
       <c r="E18" s="11">
         <f t="shared" si="0"/>
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -3602,22 +3695,19 @@
       <c r="J18">
         <v>1</v>
       </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
       <c r="N18">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="O18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C19" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3629,25 +3719,25 @@
       </c>
       <c r="E19" s="11">
         <f t="shared" si="0"/>
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
       <c r="N19">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="O19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B20" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
+        <v>28</v>
+      </c>
+      <c r="C20" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>$\succeq_{1}$</v>
       </c>
       <c r="D20" s="12" t="str">
         <f>test_fit!K35</f>
@@ -3657,6 +3747,9 @@
         <f t="shared" si="0"/>
         <v>625</v>
       </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
       <c r="N20">
         <v>625</v>
       </c>
@@ -3664,12 +3757,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C21" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3681,21 +3774,21 @@
       </c>
       <c r="E21" s="11">
         <f t="shared" si="0"/>
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="N21">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="O21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B22" s="4" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C22" s="9" t="str">
         <f t="shared" si="1"/>
@@ -3725,12 +3818,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C23" s="9" t="str">
         <f t="shared" si="1"/>
@@ -3742,7 +3835,7 @@
       </c>
       <c r="E23" s="11">
         <f t="shared" si="0"/>
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -3753,19 +3846,16 @@
       <c r="J23">
         <v>1</v>
       </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
       <c r="N23">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="O23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C24" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3789,16 +3879,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C25" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>$\succeq_{1}$</v>
+        <v>$\succeq_{1}^*$</v>
       </c>
       <c r="D25" s="12" t="str">
         <f>test_fit!K45</f>
@@ -3806,7 +3896,13 @@
       </c>
       <c r="E25" s="11">
         <f t="shared" si="0"/>
-        <v>906</v>
+        <v>905</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -3815,15 +3911,15 @@
         <v>1</v>
       </c>
       <c r="N25">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="O25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C26" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3831,7 +3927,7 @@
       </c>
       <c r="D26" s="12" t="str">
         <f>test_fit!K47</f>
-        <v>*/*  |  */*</v>
+        <v>*/*  |     /*</v>
       </c>
       <c r="E26" s="11">
         <f t="shared" si="0"/>
@@ -3847,16 +3943,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
+        <v>37</v>
+      </c>
+      <c r="C27" s="19" t="str">
+        <f>IF(F27=1,"$\succeq_{1}^*$",IF(G27=1,"$\succeq_{2}^*$",IF(H27=1,"$\preceq_{1}^*$",IF(I27=1,"$\preceq_{2}^*$",IF(J27=1,"$\succeq_{1}$",IF(K27=1,"$\succeq_{2}$",IF(L27=1,"$\preceq_{1}$",IF(M27=1,"$\preceq_{2}$","-"))))))))</f>
+        <v>$\succeq_{1}$</v>
       </c>
       <c r="D27" s="12" t="str">
         <f>test_fit!K49</f>
@@ -3864,18 +3960,24 @@
       </c>
       <c r="E27" s="11">
         <f t="shared" si="0"/>
-        <v>1998</v>
+        <v>1997</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
       </c>
       <c r="N27">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="O27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B28" s="4" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C28" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3896,14 +3998,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="18" t="str">
+        <v>52</v>
+      </c>
+      <c r="C29" s="16" t="str">
         <f t="shared" si="1"/>
         <v>$\preceq_{1}$</v>
       </c>
@@ -3913,33 +4015,39 @@
       </c>
       <c r="E29" s="11">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="N29">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B30" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>$\succeq_{1}$</v>
+        <v>53</v>
+      </c>
+      <c r="C30" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>$\succeq_{1}^*$</v>
       </c>
       <c r="D30" s="12" t="str">
         <f>test_fit!K55</f>
-        <v>*/*  |     /*</v>
+        <v>*/*  |  */*</v>
       </c>
       <c r="E30" s="11">
         <f t="shared" si="0"/>
-        <v>1626</v>
+        <v>1625</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -3948,18 +4056,18 @@
         <v>1</v>
       </c>
       <c r="N30">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="O30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="C31" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3971,7 +4079,7 @@
       </c>
       <c r="E31" s="11">
         <f t="shared" si="0"/>
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -3980,15 +4088,15 @@
         <v>1</v>
       </c>
       <c r="N31">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="O31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B32" s="4" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C32" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4000,7 +4108,7 @@
       </c>
       <c r="E32" s="11">
         <f t="shared" si="0"/>
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -4011,26 +4119,23 @@
       <c r="J32">
         <v>1</v>
       </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
       <c r="N32">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$\succeq_{1}$</v>
+        <v>40</v>
+      </c>
+      <c r="C33" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>$\succeq_{1}^*$</v>
       </c>
       <c r="D33" s="12" t="str">
         <f>test_fit!K61</f>
@@ -4038,7 +4143,13 @@
       </c>
       <c r="E33" s="11">
         <f t="shared" si="0"/>
-        <v>1521</v>
+        <v>1520</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -4047,15 +4158,15 @@
         <v>1</v>
       </c>
       <c r="N33">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="O33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B34" s="4" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C34" s="8" t="str">
         <f t="shared" si="1"/>
@@ -4079,16 +4190,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>$\succeq_{1}$</v>
+        <v>42</v>
+      </c>
+      <c r="C35" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>$\succeq_{1}^*$</v>
       </c>
       <c r="D35" s="12" t="str">
         <f>test_fit!K65</f>
@@ -4098,6 +4209,12 @@
         <f t="shared" si="0"/>
         <v>1054</v>
       </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
       <c r="J35">
         <v>1</v>
       </c>
@@ -4108,9 +4225,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B36" s="4" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C36" s="8" t="str">
         <f t="shared" si="1"/>
@@ -4122,27 +4239,24 @@
       </c>
       <c r="E36" s="11">
         <f t="shared" si="0"/>
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="J36">
         <v>1</v>
       </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
       <c r="N36">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="O36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C37" s="8" t="str">
         <f t="shared" si="1"/>
@@ -4154,21 +4268,21 @@
       </c>
       <c r="E37" s="11">
         <f t="shared" si="0"/>
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="J37">
         <v>1</v>
       </c>
       <c r="N37">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="O37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B38" s="4" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C38" s="8" t="str">
         <f t="shared" si="1"/>
@@ -4185,9 +4299,6 @@
       <c r="J38">
         <v>1</v>
       </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
       <c r="N38">
         <v>1872</v>
       </c>
@@ -4195,12 +4306,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C39" s="8" t="str">
         <f t="shared" si="1"/>
@@ -4217,9 +4328,6 @@
       <c r="J39">
         <v>1</v>
       </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
       <c r="N39">
         <v>1352</v>
       </c>
@@ -4227,13 +4335,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B40" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>$\succeq_{1}$</v>
+        <v>47</v>
+      </c>
+      <c r="C40" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>$\succeq_{1}^*$</v>
       </c>
       <c r="D40" s="12" t="str">
         <f>test_fit!K75</f>
@@ -4241,24 +4349,33 @@
       </c>
       <c r="E40" s="11">
         <f t="shared" si="0"/>
-        <v>1343</v>
+        <v>1342</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
       </c>
       <c r="J40">
         <v>1</v>
       </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
       <c r="N40">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="O40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C41" s="15" t="str">
         <f t="shared" ref="C41" si="2">IF(F41=1,"$\succeq_{1}^*$",IF(G41=1,"$\succeq_{2}^*$",IF(H41=1,"$\preceq_{1}^*$",IF(I41=1,"$\preceq_{2}^*$",IF(J41=1,"$\succeq_{1}$",IF(K41=1,"$\succeq_{2}$",IF(L41=1,"$\preceq_{1}$",IF(M41=1,"$\preceq_{2}$","-"))))))))</f>
@@ -4270,21 +4387,24 @@
       </c>
       <c r="E41" s="13">
         <f t="shared" ref="E41" si="3">N41</f>
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="J41">
         <v>1</v>
       </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
       <c r="N41">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="O41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B42" s="6" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C42" s="10" t="str">
         <f t="shared" ref="C42" si="4">IF(F42=1,"$\succeq_{1}^*$",IF(G42=1,"$\succeq_{2}^*$",IF(H42=1,"$\preceq_{1}^*$",IF(I42=1,"$\preceq_{2}^*$",IF(J42=1,"$\succeq_{1}$",IF(K42=1,"$\succeq_{2}$",IF(L42=1,"$\preceq_{1}$",IF(M42=1,"$\preceq_{2}$","-"))))))))</f>
@@ -4296,7 +4416,7 @@
       </c>
       <c r="E42" s="3">
         <f t="shared" ref="E42" si="5">N42</f>
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -4308,13 +4428,13 @@
         <v>1</v>
       </c>
       <c r="N42">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="O42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="F2:G2"/>
